--- a/仕様/仕様書/01_01_プレイヤー.xlsx
+++ b/仕様/仕様書/01_01_プレイヤー.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
-    <sheet name="概要" sheetId="3" r:id="rId2"/>
-    <sheet name="モデル" sheetId="4" r:id="rId3"/>
-    <sheet name="ステータス" sheetId="9" r:id="rId4"/>
-    <sheet name="モーション" sheetId="5" r:id="rId5"/>
-    <sheet name="操作方法" sheetId="6" r:id="rId6"/>
-    <sheet name="通常攻撃" sheetId="7" r:id="rId7"/>
-    <sheet name="スキル" sheetId="8" r:id="rId8"/>
-    <sheet name="アイテムの作用" sheetId="10" r:id="rId9"/>
+    <sheet name="モデル" sheetId="4" r:id="rId2"/>
+    <sheet name="概要" sheetId="3" r:id="rId3"/>
+    <sheet name="モーション" sheetId="5" r:id="rId4"/>
+    <sheet name="操作方法" sheetId="6" r:id="rId5"/>
+    <sheet name="通常攻撃" sheetId="7" r:id="rId6"/>
+    <sheet name="スキル" sheetId="8" r:id="rId7"/>
+    <sheet name="アイテムの作用" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="151">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="2"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ステータス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>スキル</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -214,163 +210,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ひとつのステータス要素に必要な情報</t>
-    <rPh sb="9" eb="11">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ステータス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● 基礎値</t>
-    <rPh sb="3" eb="6">
-      <t>キソアタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● アイテムによる追加値</t>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● アイテムによる追加割合</t>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ワリアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状態による追加値</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状態による追加割合</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ワリアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>下へ</t>
     <rPh sb="0" eb="1">
       <t>シタ</t>
@@ -386,117 +225,1136 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　● 体力</t>
+    <t>必要クラス</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPlayer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C〇〇(〇〇はキャラクターネーム)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの基礎情報を保存するクラス</t>
+    <rPh sb="6" eb="8">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cplayerで宣言する変数</t>
+    <rPh sb="8" eb="10">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラクターごとに情報を設定するクラス、CPlayerを継承する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSkill</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキルの効果やモーションを管理する</t>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキルのリキャストの秒数の情報を持つ変数</t>
+    <rPh sb="10" eb="12">
+      <t>ビョウスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPlayerで宣言する関数</t>
+    <rPh sb="8" eb="10">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ccharacterの攻撃関数をキー入力で呼び出す関数。いったん左クリック</t>
+    <rPh sb="11" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ccharacterの移動関数をキー入力で呼び出す関数。WASD、スティック。</t>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スプリントしているかしていないか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bool型。走っているか走っていないかを判定するための変数。</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スプリント基礎倍率、スプリントアイテム倍率、スプリントバフ倍率</t>
+    <rPh sb="5" eb="7">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>float型3つ、通常時の倍率、アイテムで得た倍率、バフで得た倍率。</t>
+    <rPh sb="5" eb="6">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ツウジョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スプリント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの移動速度に倍率をかける処理。左CTRLを押すことでスプリント状態に入る。</t>
+    <rPh sb="6" eb="10">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算式は 移動速度 * (基礎スプリント速度(1.5) + アイテムで得たスプリント速度 + バフで得たスプリント速度) = スプリント速度</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動処理はスプリントの後に処理されるようにすること。</t>
+    <rPh sb="0" eb="4">
+      <t>イドウショリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ccharacterのジャンプ関数をキー入力で呼び出す関数。スペース</t>
+    <rPh sb="15" eb="17">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リキャスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキルの番号</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自身が何番のスキルを使うかを選択するかを保存する変数。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
     <rPh sb="3" eb="5">
+      <t>ナンバン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cskillから自身のスキルを呼び出す処理。前述のスキル番号を使用する。</t>
+    <rPh sb="8" eb="10">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼンジュツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動関数</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラクターの攻撃に使用する関数です。</t>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>攻撃関数</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラクターの移動に使用する関数です。</t>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラクターの行動に関する関数</t>
+    <rPh sb="7" eb="9">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CCharacterで宣言する関数</t>
+    <rPh sb="11" eb="13">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_Death - プレイヤーが死亡したかしていないか</t>
+    <rPh sb="16" eb="18">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Death</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死亡しているかしていないか</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffmulBarHeal - バフで乗算される倍率</t>
+    <rPh sb="22" eb="24">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_ietmmulBarHeal - アイテムで乗算される倍率</t>
+    <rPh sb="24" eb="26">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffBarHeal - バフで加算されるバリアの回復速度</t>
+    <rPh sb="19" eb="21">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>float型↓</t>
+    <rPh sb="5" eb="6">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_itemBarHeal - アイテムで加算されるバリアの回復速度</t>
+    <rPh sb="21" eb="23">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int型</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_sumBarHeal  - キャラクターのバリアの回復速度の合計値</t>
+    <rPh sb="32" eb="35">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Barrier_Heal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バリア回復速度に関連する変数</t>
+    <rPh sb="3" eb="7">
+      <t>カイフクソクド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffmulBarrier - バフで乗算される倍率</t>
+    <rPh sb="22" eb="24">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_ietmmulBarrier - アイテムで乗算される倍率</t>
+    <rPh sb="24" eb="26">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffBarrier - バフで加算されるバリア</t>
+    <rPh sb="19" eb="21">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_itemBarrier - アイテムで加算されるバリア</t>
+    <rPh sb="21" eb="23">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_sumBarrier  - キャラクターの体力の合計値</t>
+    <rPh sb="23" eb="25">
       <t>タイリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● 攻撃力</t>
-    <rPh sb="3" eb="6">
+    <rPh sb="26" eb="29">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Barrier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バリアに関連する変数</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffHBReduce - バフで加算される一時体力</t>
+    <rPh sb="20" eb="22">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_itemHBReduce - アイテムで加算される一時体力</t>
+    <rPh sb="22" eb="24">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_sumHBReduce  - キャラクターの体力の合計値</t>
+    <rPh sb="24" eb="26">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Health Boost Reduce</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一時体力の減少速度に関連する変数</t>
+    <rPh sb="0" eb="2">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffmulHealthBoost - バフで乗算される倍率</t>
+    <rPh sb="26" eb="28">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_ietmmulHealthBoost - アイテムで乗算される倍率</t>
+    <rPh sb="28" eb="30">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffHealthBoost - バフで加算される一時体力</t>
+    <rPh sb="23" eb="25">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_itemHealthBoost - アイテムで加算される一時体力</t>
+    <rPh sb="25" eb="27">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_sumHealthBoost  - キャラクターの体力の合計値</t>
+    <rPh sb="27" eb="29">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Health Boost</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一時体力に関連する変数</t>
+    <rPh sb="0" eb="2">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffJump  - バフで加算されるジャンプ数</t>
+    <rPh sb="17" eb="19">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_itemJump - アイテムで加算されるジャンプ数</t>
+    <rPh sb="18" eb="20">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_baseJump       - キャラクターの基礎ジャンプ数</t>
+    <rPh sb="26" eb="28">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int型↓</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_sumJump - キャラクターのジャンプ数の合計値</t>
+    <rPh sb="25" eb="28">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャンプ数に関連する変数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffmulSpeed  - バフで乗算される倍率</t>
+    <rPh sb="21" eb="23">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_ietmmulSpeed - アイテムで乗算される倍率</t>
+    <rPh sb="22" eb="24">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_baseSpeed       - キャラクターの基礎移動速度</t>
+    <rPh sb="29" eb="33">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_sumSpeed - キャラクターの移動速度の合計値</t>
+    <rPh sb="20" eb="24">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動速度に関連する変数</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffmulCritical  - バフで乗算される倍率</t>
+    <rPh sb="24" eb="26">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_ietmmulCritical - アイテムで乗算される倍率</t>
+    <rPh sb="25" eb="27">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_baseCritical       - キャラクターの基礎クリティカル率</t>
+  </si>
+  <si>
+    <t>m_sumCritical - キャラクターのクリティカル確率の合計値</t>
+    <rPh sb="29" eb="31">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリティカルに関連する変数</t>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffmulDeffence - バフで乗算される倍率</t>
+    <rPh sb="23" eb="25">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_ietmmulDeffence - アイテムで乗算される倍率</t>
+    <rPh sb="25" eb="27">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffDeffence - バフで加算される防御力</t>
+    <rPh sb="20" eb="22">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_itemDeffence - アイテムで加算される防御力</t>
+    <rPh sb="22" eb="24">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_baseDeffence - キャラクターの基礎防御力</t>
+  </si>
+  <si>
+    <t>m_sumDeffence  - キャラクターの防御力の合計値</t>
+    <rPh sb="24" eb="27">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Deffence</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>防御力に関連する変数</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffmulStrength - バフで乗算される倍率</t>
+    <rPh sb="23" eb="25">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_ietmmulStrength - アイテムで乗算される倍率</t>
+    <rPh sb="25" eb="27">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffStrength - バフで加算される攻撃力</t>
+    <rPh sb="20" eb="22">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="25" eb="28">
       <t>コウゲキリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　● 防御力</t>
-    <rPh sb="3" eb="6">
-      <t>ボウギョリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● クリティカル値</t>
-    <rPh sb="9" eb="10">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● 移動速度</t>
-    <rPh sb="3" eb="7">
-      <t>イドウソクド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● スプリント中の移動速度割合</t>
-    <rPh sb="8" eb="9">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ソクド</t>
-    </rPh>
+    <t>m_itemStrength - アイテムで加算される攻撃力</t>
+    <rPh sb="22" eb="24">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_baseStrength - キャラクターの基礎攻撃力</t>
+    <rPh sb="24" eb="29">
+      <t>キソコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_sumStrength  - キャラクターの攻撃力の合計値</t>
+    <rPh sb="24" eb="27">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Strength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>攻撃力に関連する変数</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffmulHP - バフで乗算される倍率</t>
+    <rPh sb="17" eb="19">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_ietmmulHP - アイテムで乗算される倍率</t>
+    <rPh sb="19" eb="21">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_buffHP - バフで加算される体力</t>
     <rPh sb="14" eb="16">
-      <t>ワリアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● 跳躍数</t>
-    <rPh sb="3" eb="6">
-      <t>チョウヤクスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● クールダウン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● 一時HP</t>
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_itemHP - アイテムで加算される体力</t>
+    <rPh sb="16" eb="18">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_baseHP - キャラクターの基礎体力</t>
+  </si>
+  <si>
+    <t>m_sumHP  - キャラクターの体力の合計値</t>
+    <rPh sb="18" eb="20">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>体力に関連する変数</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
     <rPh sb="3" eb="5">
-      <t>イチジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● 一時HPの減少値</t>
-    <rPh sb="3" eb="5">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ゲンショウアタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● バリア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● バリア回復時間</t>
-    <rPh sb="6" eb="10">
-      <t>カイフクジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● 自動回復</t>
-    <rPh sb="3" eb="7">
-      <t>ジドウカイフク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　● ダメージを無効化にする確率</t>
-    <rPh sb="8" eb="11">
-      <t>ムコウカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクリツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0になると、ゲームを終了する。</t>
-    <rPh sb="10" eb="12">
-      <t>シュウリョウ</t>
-    </rPh>
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラクターのステータスに使用する変数</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CCharacterで宣言する変数</t>
+    <rPh sb="11" eb="13">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エネミーの設定クラス。Ccharacterを継承する。</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cenemy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの設定クラス。Ccharacterを継承する。</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPlayer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CCharacter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上へ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -504,7 +1362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,44 +1432,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,6 +1461,33 @@
       <u/>
       <sz val="20"/>
       <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -680,7 +1532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -962,18 +1814,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -999,6 +1862,31 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1025,9 +1913,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1056,34 +1941,1135 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="200">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1649,7 +3635,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1658,41 +3644,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1705,144 +3697,143 @@
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="9" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="12" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A1:V1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="C4:E4"/>
@@ -1860,19 +3851,23 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="L1" location="ステータス!A2" display="上へ"/>
+    <hyperlink ref="J1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1884,7 +3879,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1893,30 +3888,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+      <c r="A1" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1924,16 +3919,16 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1943,12 +3938,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1957,374 +3952,610 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+    </row>
+    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B14" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+    </row>
+    <row r="17" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B20" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B23" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B26" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+    </row>
+    <row r="32" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B32" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B37" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B40" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B43" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:V1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B14:L15"/>
+    <mergeCell ref="B29:L30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+  <conditionalFormatting sqref="B1:B10 B16:B19 B31 B38:B39 B42 B45 B27:B28 B33:B36 B48:B1048576 B22">
+    <cfRule type="cellIs" dxfId="195" priority="73" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="74" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="75" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="76" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B15">
+    <cfRule type="cellIs" dxfId="191" priority="69" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="70" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="71" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="72" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B13">
+    <cfRule type="cellIs" dxfId="187" priority="65" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="66" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="67" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="68" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B30">
+    <cfRule type="cellIs" dxfId="183" priority="61" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="62" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="63" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="64" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="cellIs" dxfId="179" priority="57" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="58" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="59" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="60" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="cellIs" dxfId="175" priority="53" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="54" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="55" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="56" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="cellIs" dxfId="171" priority="49" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="50" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="51" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="52" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B25">
+    <cfRule type="cellIs" dxfId="167" priority="37" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="38" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="39" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="40" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="cellIs" dxfId="163" priority="33" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="34" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="35" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="36" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="cellIs" dxfId="159" priority="21" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="22" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="23" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="24" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="cellIs" dxfId="155" priority="17" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="18" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="19" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="20" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="cellIs" dxfId="151" priority="13" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="14" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="15" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="16" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="cellIs" dxfId="147" priority="9" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="10" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="11" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="12" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="cellIs" dxfId="143" priority="5" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="6" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="7" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="8" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="cellIs" dxfId="139" priority="1" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="3" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="L1" location="プレイヤー!A2" display="上へ"/>
+    <hyperlink ref="J1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D19" sqref="D19"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="8.69921875" customWidth="1"/>
-    <col min="3" max="3" width="8.8984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-    </row>
-    <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-    </row>
-    <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-    </row>
-    <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-    </row>
-    <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="28"/>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="28"/>
-    </row>
-    <row r="19" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="28"/>
-    </row>
-    <row r="22" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="28"/>
-    </row>
-    <row r="25" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="28"/>
-    </row>
-    <row r="27" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="28"/>
-    </row>
-    <row r="28" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="28"/>
-    </row>
-    <row r="31" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="28"/>
-    </row>
-    <row r="34" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="28"/>
-    </row>
-    <row r="37" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="28"/>
-    </row>
-    <row r="40" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="28"/>
-    </row>
-    <row r="43" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="28"/>
-    </row>
-    <row r="46" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="28"/>
-    </row>
-    <row r="49" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="28"/>
-    </row>
-    <row r="52" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="B11:L12"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B1:B4 B13 H21:H25 H27:H33 B19 B22 B25 B31 B46 B49 B34 B37 B40 B43 B52 B54:B1048576">
-    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
-      <formula>"デザイン"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="46" operator="equal">
-      <formula>"システム"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="47" operator="equal">
-      <formula>"全体"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="48" operator="equal">
-      <formula>"ゲーム挙動"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
-      <formula>"デザイン"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
-      <formula>"システム"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
-      <formula>"全体"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
-      <formula>"ゲーム挙動"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B9" r:id="rId2" display="　● 状態による追加値"/>
-    <hyperlink ref="L1" location="ステータス!A2" display="上へ"/>
-    <hyperlink ref="J1" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2333,30 +4564,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2364,16 +4595,80 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="4" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:V1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="127" priority="1" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="2" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="3" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2388,7 +4683,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D19" sqref="D19"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2397,30 +4692,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+      <c r="A1" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2428,16 +4723,16 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2461,30 +4756,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+      <c r="A1" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2492,16 +4787,16 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2516,7 +4811,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D19" sqref="D19"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2525,30 +4820,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+      <c r="A1" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2556,16 +4851,16 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2575,12 +4870,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D19" sqref="D19"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2589,37 +4882,1262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+      <c r="A1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+    </row>
+    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B5" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B8" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B11" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B14" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+    </row>
+    <row r="17" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B17" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="25"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="22"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="22"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65" s="22"/>
+    </row>
+    <row r="67" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G68" s="22"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+      <c r="G71" s="22"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="G72" s="22"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="22"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G74" s="22"/>
+    </row>
+    <row r="75" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G76" s="22"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" s="22"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G80" s="22"/>
+    </row>
+    <row r="81" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G82" s="22"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="G85" s="22"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>80</v>
+      </c>
+      <c r="G86" s="22"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="22"/>
+    </row>
+    <row r="89" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G90" s="22"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B91" t="s">
+        <v>76</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B92" t="s">
+        <v>74</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B93" t="s">
+        <v>72</v>
+      </c>
+      <c r="G93" s="22"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
+        <v>71</v>
+      </c>
+      <c r="G94" s="22"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B95" t="s">
+        <v>70</v>
+      </c>
+      <c r="G95" s="22"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G96" s="22"/>
+    </row>
+    <row r="97" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G98" s="22"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B99" t="s">
+        <v>67</v>
+      </c>
+      <c r="G99" s="22"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B101" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="42"/>
+    </row>
+    <row r="102" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="43"/>
+    </row>
+    <row r="104" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B104" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+    </row>
+    <row r="106" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B107" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B109" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="14"/>
+    </row>
+    <row r="115" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:V1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B14:L15"/>
+    <mergeCell ref="B101:L102"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B10 B16:B18 B103 B45:B47 B27:B29 B31:B36 B49:B52 B61 B66 B88 B78:B80 B100 B105 B107:B108 B110:B111 B113:B114 B116:B1048576">
+    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="110" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="111" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="112" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B15">
+    <cfRule type="cellIs" dxfId="107" priority="105" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="108" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B13">
+    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101:B102">
+    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="100" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:B44">
+    <cfRule type="cellIs" dxfId="95" priority="93" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="96" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B20 B22:B26">
+    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="cellIs" dxfId="87" priority="85" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:B54 B56:B59">
+    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B65">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:B68 B70:B74">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:B76">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81:B82 B84:B87">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89:B90 B92:B96 B98:B99">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B97">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
@@ -2633,6 +6151,10 @@
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="L1" location="プレイヤー!A2" display="上へ"/>
+    <hyperlink ref="J1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>